--- a/newAntonovskaya_joint_test.xlsx
+++ b/newAntonovskaya_joint_test.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,22 +427,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>метод=geiger</t>
+          <t>метод=gird_straigthtforward</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>максимальное число итераций=99</t>
+          <t>число клеток=200</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>альфа=0.0001</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>точность=1e-06</t>
+          <t>параметр масштабирования=4</t>
         </is>
       </c>
     </row>
@@ -533,17 +528,20 @@
         <v>-470</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>-0.1999335876473249</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>77232.57106272547</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>26828.81712904212</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>-152.0092466737365</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.02616754802559049</v>
       </c>
     </row>
     <row r="5">
@@ -561,17 +559,20 @@
         <v>-470</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>-0.2351240284889168</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>77249.4637446478</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>26802.05956997424</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>-147.5930742673531</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.03082029917893935</v>
       </c>
     </row>
     <row r="6">
@@ -589,17 +590,20 @@
         <v>-356</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>-0.05994693456041599</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>77407.41156158244</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>26656.37290302739</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>-164.775401865657</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0.01783491013958636</v>
       </c>
     </row>
     <row r="7">
@@ -617,17 +621,20 @@
         <v>-386</v>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>-0.1891934282806129</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>77225.31525063154</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>26825.19253428928</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>-149.5707647157913</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0.01638562232723057</v>
       </c>
     </row>
     <row r="8">
@@ -645,17 +652,20 @@
         <v>-470</v>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>-0.1907670265314029</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>77224.39829855216</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>26819.84935700073</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>-150.2760661674081</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0.01097695587038736</v>
       </c>
     </row>
     <row r="9">
@@ -673,17 +683,20 @@
         <v>-420</v>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>-0.1968573783593402</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>77228.13281897965</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>26819.45020032642</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>-150.1563849356245</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0.01198808971974316</v>
       </c>
     </row>
     <row r="10">
@@ -701,17 +714,20 @@
         <v>-470</v>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>-0.2078979499267427</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>77236.115184023</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>26819.77923970925</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>-150.1623722977672</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0.01518016579210137</v>
       </c>
     </row>
     <row r="11">
@@ -729,17 +745,20 @@
         <v>-359</v>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-0.1663159874374754</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>77202.50236186071</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>26822.54700402228</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>-150.3726217310657</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0.008749327344463483</v>
       </c>
     </row>
     <row r="12">
@@ -757,17 +776,20 @@
         <v>-470</v>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>-0.2041224503409704</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>77233.714267405</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>26819.53049244062</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>-149.8784054941381</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0.01414147802248854</v>
       </c>
     </row>
     <row r="13">
@@ -785,17 +807,20 @@
         <v>-470</v>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>-0.2028551654601867</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>77233.37797839906</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>26821.77979750178</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>-149.4481624126986</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0.01637451753792466</v>
       </c>
     </row>
     <row r="14">
@@ -813,17 +838,20 @@
         <v>-417</v>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-0.2044555366686418</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>77232.51413643837</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>26812.64788350459</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>-149.1877690285851</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0.01332524656098416</v>
       </c>
     </row>
     <row r="15">
@@ -841,17 +869,20 @@
         <v>-534</v>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>-0.178830781220666</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>77211.30584570022</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>26824.04418349665</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>-151.2223192456656</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0.01634660534215641</v>
       </c>
     </row>
     <row r="16">
@@ -869,17 +900,20 @@
         <v>-470</v>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>-0.2039262713254784</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>77232.95098884068</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>26821.96391933281</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>-150.3420876979775</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0.02138506533978272</v>
       </c>
     </row>
     <row r="17">
@@ -897,17 +931,20 @@
         <v>-569</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-0.1869347189062272</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>77219.00653804377</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>26822.50401140986</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>-150.8064880787618</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0.01631798386596555</v>
       </c>
     </row>
     <row r="18">
@@ -925,17 +962,20 @@
         <v>-455</v>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-0.2138926985843109</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>77237.79846869317</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>26826.08160550679</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>-151.2319394884611</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.03113700015001941</v>
       </c>
     </row>
     <row r="19">
@@ -953,17 +993,20 @@
         <v>-265</v>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-0.1875746741883716</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>77222.31975429022</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>26823.28368652181</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>-149.2619452005769</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0.01457478458300704</v>
       </c>
     </row>
     <row r="20">
@@ -981,17 +1024,20 @@
         <v>-543</v>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-0.1725829909632753</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>77203.15348732565</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>26824.85714240636</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>-150.8901167430272</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0.01648820068756353</v>
       </c>
     </row>
     <row r="21">
@@ -1009,17 +1055,20 @@
         <v>-574</v>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>-0.1924335204625635</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>77224.6113665053</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I21" t="n">
-        <v>26824.54330206121</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>-149.6474297065831</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0.02210535170940408</v>
       </c>
     </row>
     <row r="22">
@@ -1037,17 +1086,20 @@
         <v>-531</v>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>-0.1805316171943905</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>77216.94170120524</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>26823.64692691005</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>-151.0378047364607</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>0.01596601157311072</v>
       </c>
     </row>
     <row r="23">
@@ -1065,17 +1117,20 @@
         <v>-433</v>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>0.0551197579726789</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>78609.46260895772</v>
+        <v>78063.65555555557</v>
       </c>
       <c r="I23" t="n">
-        <v>26036.94837776323</v>
+        <v>78063.65555555557</v>
       </c>
       <c r="J23" t="n">
-        <v>-128.3428672911075</v>
+        <v>78063.65555555557</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>0.1089783517874006</v>
       </c>
     </row>
     <row r="24">
@@ -1093,17 +1148,20 @@
         <v>-470</v>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>-0.1948709507451383</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>77228.15995782496</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>26821.3303075868</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>-150.6882604003044</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0.0130991852238353</v>
       </c>
     </row>
     <row r="25">
@@ -1121,17 +1179,20 @@
         <v>-321</v>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>-0.2130071840924881</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>77235.24191274242</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>26805.26537203419</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J25" t="n">
-        <v>-147.3912238557797</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0.02584119819429677</v>
       </c>
     </row>
     <row r="26">
@@ -1149,17 +1210,20 @@
         <v>-470</v>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>-0.1866744889557229</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>77225.56259392717</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>26840.30797385415</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>-152.6921746303548</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0.03508448872750878</v>
       </c>
     </row>
     <row r="27">
@@ -1177,17 +1241,20 @@
         <v>-470</v>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>-0.2120071660907576</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>77238.35716344783</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>26824.69393134204</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>-150.4844651608752</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0.02751858018567056</v>
       </c>
     </row>
     <row r="28">
@@ -1205,17 +1272,20 @@
         <v>-392</v>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>-0.1980860693292053</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>77228.3509230218</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>26822.07382702243</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J28" t="n">
-        <v>-150.4709459910158</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>0.0196049349067584</v>
       </c>
     </row>
     <row r="29">
@@ -1233,17 +1303,20 @@
         <v>-554</v>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>-0.1657379522413785</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>77202.69394464708</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I29" t="n">
-        <v>26822.96822196386</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>-151.800861495404</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0.01144068963564347</v>
       </c>
     </row>
     <row r="30">
@@ -1261,17 +1334,20 @@
         <v>-317</v>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>-0.1925026146946279</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>77224.95963978654</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>26822.44632452802</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>-150.3006677508395</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0.01837860809089181</v>
       </c>
     </row>
     <row r="31">
@@ -1289,17 +1365,20 @@
         <v>-470</v>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>-0.2021797400288458</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>77232.57416787259</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>26820.20017791886</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J31" t="n">
-        <v>-150.1477860415428</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0.01399701414621702</v>
       </c>
     </row>
     <row r="32">
@@ -1317,17 +1396,20 @@
         <v>-470</v>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>-0.1871338776507776</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>77223.68651571192</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>26823.09054019598</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J32" t="n">
-        <v>-149.3312433281545</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>0.01404306249176806</v>
       </c>
     </row>
     <row r="33">
@@ -1345,17 +1427,20 @@
         <v>-243</v>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>-0.1067721294216405</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>77174.05858364879</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>26862.84711143549</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>-156.2341193993388</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>0.0794900905433904</v>
       </c>
     </row>
     <row r="34">
@@ -1373,17 +1458,20 @@
         <v>-470</v>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>-0.2085656784171575</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>77236.81440310761</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>26821.06664315693</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J34" t="n">
-        <v>-150.1705732379186</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0.01691706654029636</v>
       </c>
     </row>
     <row r="35">
@@ -1401,17 +1489,20 @@
         <v>-470</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0.3359159617530818</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>77339.79156322952</v>
+        <v>76970.67777777779</v>
       </c>
       <c r="I35" t="n">
-        <v>26663.23761504835</v>
+        <v>76970.67777777779</v>
       </c>
       <c r="J35" t="n">
-        <v>-167.0048307579701</v>
+        <v>76970.67777777779</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>0.07914199665737388</v>
       </c>
     </row>
     <row r="36">
@@ -1429,17 +1520,20 @@
         <v>-331</v>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>-0.1944418013663569</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>77224.90204137248</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>26824.47634234764</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>-149.6077866868243</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>0.02267888336933966</v>
       </c>
     </row>
     <row r="37">
@@ -1457,17 +1551,20 @@
         <v>-379</v>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>-0.1903852977589513</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>77223.95614161517</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>26824.18518487584</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>-150.022969953043</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0.02037355614187348</v>
       </c>
     </row>
     <row r="38">
@@ -1485,17 +1582,20 @@
         <v>-393</v>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>-0.1802205687977845</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>77218.80083519997</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>26825.88764924229</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J38" t="n">
-        <v>-149.6648032956745</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0.02003259298114107</v>
       </c>
     </row>
     <row r="39">
@@ -1513,17 +1613,20 @@
         <v>-470</v>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>-0.2052893853236847</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>77234.31998735509</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>26819.23115483574</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>-149.8189686376265</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0.01565762314584396</v>
       </c>
     </row>
     <row r="40">
@@ -1541,17 +1644,20 @@
         <v>-468</v>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>0.483281093553848</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>78619.54374511477</v>
+        <v>76970.67777777779</v>
       </c>
       <c r="I40" t="n">
-        <v>25918.4076451502</v>
+        <v>76970.67777777779</v>
       </c>
       <c r="J40" t="n">
-        <v>-119.5933592166925</v>
+        <v>76970.67777777779</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0.2145794687046666</v>
       </c>
     </row>
     <row r="41">
@@ -1569,17 +1675,20 @@
         <v>-607</v>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>-0.2069943979583857</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>77235.42284068403</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>26819.43257766796</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J41" t="n">
-        <v>-150.9446687482566</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0.01436813680035026</v>
       </c>
     </row>
     <row r="42">
@@ -1597,17 +1706,20 @@
         <v>-558</v>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
-        <v>-0.1634062291144762</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>77201.26198309987</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>26822.20576296819</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>-151.6304482659018</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0.009096561521265525</v>
       </c>
     </row>
     <row r="43">
@@ -1625,17 +1737,20 @@
         <v>-566</v>
       </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
-        <v>-0.1816460147440994</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>77215.67278993122</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>26821.87941667807</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J43" t="n">
-        <v>-151.1084364320565</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0.01353270353628989</v>
       </c>
     </row>
     <row r="44">
@@ -1653,17 +1768,20 @@
         <v>-539</v>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
-        <v>-0.21477449945764</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>77238.87067609321</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>26817.98695368814</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J44" t="n">
-        <v>-151.5304057596297</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0.01962566267036913</v>
       </c>
     </row>
     <row r="45">
@@ -1681,17 +1799,20 @@
         <v>-470</v>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
-        <v>-0.1776975013107426</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>77214.55816768209</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I45" t="n">
-        <v>26823.58388516353</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>-149.7933312419222</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0.01255922718675375</v>
       </c>
     </row>
     <row r="46">
@@ -1709,17 +1830,20 @@
         <v>-470</v>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
-        <v>-0.2028784606802525</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>77232.83624040658</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>26819.51450111294</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>-150.4736061429287</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0.01355689978157712</v>
       </c>
     </row>
     <row r="47">
@@ -1737,17 +1861,20 @@
         <v>-470</v>
       </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
-        <v>0.3427798618787378</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>77339.64670450367</v>
+        <v>76424.18888888889</v>
       </c>
       <c r="I47" t="n">
-        <v>26663.08171510454</v>
+        <v>76424.18888888889</v>
       </c>
       <c r="J47" t="n">
-        <v>-166.9769210239175</v>
+        <v>76424.18888888889</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0.131840138384733</v>
       </c>
     </row>
     <row r="48">
@@ -1765,17 +1892,20 @@
         <v>-470</v>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>-0.2279635179306607</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>77249.35685044985</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>26824.99199648192</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>-151.5945081088748</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0.02895919103847205</v>
       </c>
     </row>
     <row r="49">
@@ -1793,17 +1923,20 @@
         <v>-536</v>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
-        <v>-0.1881042757880665</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>77217.91332681502</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>26820.72390771055</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J49" t="n">
-        <v>-150.7248218797452</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0.01306831908161505</v>
       </c>
     </row>
     <row r="50">
@@ -1821,17 +1954,20 @@
         <v>-470</v>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>-0.2190889643846219</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>77242.97045164749</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>26819.12894358332</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J50" t="n">
-        <v>-150.5597936937161</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>0.01796301326646075</v>
       </c>
     </row>
     <row r="51">
@@ -1849,17 +1985,20 @@
         <v>-470</v>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>-0.1919363503115958</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>77225.75151006227</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I51" t="n">
-        <v>26824.57590963205</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J51" t="n">
-        <v>-150.772256896071</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0.02050717440506413</v>
       </c>
     </row>
     <row r="52">
@@ -1877,17 +2016,20 @@
         <v>-531</v>
       </c>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>-0.1865702706436675</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>77220.43238489833</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I52" t="n">
-        <v>26822.6773146108</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J52" t="n">
-        <v>-151.2184113353854</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0.01618872641463864</v>
       </c>
     </row>
     <row r="53">
@@ -1905,17 +2047,20 @@
         <v>-416</v>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>-0.1831621094596481</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>77218.68841320733</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>26823.90738941921</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>-150.3952608361934</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0.01746010188014452</v>
       </c>
     </row>
     <row r="54">
@@ -1933,17 +2078,20 @@
         <v>-277</v>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>-0.1925559145864787</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>77226.02395867422</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>26822.9967133616</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J54" t="n">
-        <v>-150.1411901249754</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0.01917874765565002</v>
       </c>
     </row>
     <row r="55">
@@ -1961,17 +2109,20 @@
         <v>-548</v>
       </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>-0.1721008405223677</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>77211.0332998886</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I55" t="n">
-        <v>26823.73918359459</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J55" t="n">
-        <v>-150.7403073866728</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>0.01370752794292588</v>
       </c>
     </row>
     <row r="56">
@@ -1989,17 +2140,20 @@
         <v>-546</v>
       </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>-0.1828935060391809</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>77219.9999028146</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>26823.69008323992</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>-150.8898556238232</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0.01637730926469375</v>
       </c>
     </row>
     <row r="57">
@@ -2017,17 +2171,20 @@
         <v>-545</v>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>-0.1787110357785779</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>77214.17580226848</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>26823.45458576818</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J57" t="n">
-        <v>-150.6204624927051</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>0.0152897055006315</v>
       </c>
     </row>
     <row r="58">
@@ -2045,17 +2202,20 @@
         <v>-575</v>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>-0.1831681441425292</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>77220.45878471324</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>26825.17140681724</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J58" t="n">
-        <v>-150.102424521662</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0.01918698709497185</v>
       </c>
     </row>
     <row r="59">
@@ -2073,17 +2233,20 @@
         <v>-551</v>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
-        <v>-0.2014774093075913</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>77230.82848460739</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I59" t="n">
-        <v>26819.49598895355</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J59" t="n">
-        <v>-151.343707230168</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0.01652623485625606</v>
       </c>
     </row>
     <row r="60">
@@ -2101,17 +2264,20 @@
         <v>-554</v>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="n">
-        <v>-0.1844656555357996</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>77217.80343354426</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I60" t="n">
-        <v>26824.23088206871</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J60" t="n">
-        <v>-150.393790628903</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>0.01831294115179742</v>
       </c>
     </row>
     <row r="61">
@@ -2129,17 +2295,20 @@
         <v>-455</v>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>-0.1923599306170354</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>77225.1380579914</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I61" t="n">
-        <v>26824.89902326392</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J61" t="n">
-        <v>-151.4420413960626</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>0.02176835982359922</v>
       </c>
     </row>
     <row r="62">
@@ -2157,17 +2326,20 @@
         <v>-270</v>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>-0.1612113898597831</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>77199.49704047322</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>26826.22216724995</v>
+        <v>77517.16666666667</v>
       </c>
       <c r="J62" t="n">
-        <v>-150.1366748824755</v>
+        <v>77517.16666666667</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>0.0161628948118754</v>
       </c>
     </row>
   </sheetData>
